--- a/scooter.xlsx
+++ b/scooter.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9555" yWindow="2550" windowWidth="14250" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9560" yWindow="2560" windowWidth="23000" windowHeight="16460" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -100,11 +100,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -450,28 +450,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="12.140625" customWidth="1" min="2" max="2"/>
+    <col width="12.1640625" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="16.42578125" customWidth="1" min="5" max="5"/>
-    <col width="17.28515625" customWidth="1" min="6" max="6"/>
-    <col width="14.42578125" customWidth="1" min="7" max="7"/>
-    <col width="18.42578125" customWidth="1" min="8" max="8"/>
-    <col width="22.42578125" customWidth="1" min="9" max="9"/>
-    <col width="24.5703125" customWidth="1" min="10" max="10"/>
-    <col width="23.28515625" customWidth="1" min="11" max="11"/>
+    <col width="16.5" customWidth="1" min="5" max="5"/>
+    <col width="17.33203125" customWidth="1" min="6" max="6"/>
+    <col width="14.5" customWidth="1" min="7" max="7"/>
+    <col width="18.5" customWidth="1" min="8" max="8"/>
+    <col width="22.5" customWidth="1" min="9" max="9"/>
+    <col width="24.5" customWidth="1" min="10" max="10"/>
+    <col width="23.33203125" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="16" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Anbieter</t>
@@ -568,38 +568,38 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Lime</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Flatrate</t>
         </is>
       </c>
-      <c r="C3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="n">
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="n">
         <v>39</v>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="n">
+      <c r="G3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="n">
         <v>45</v>
       </c>
       <c r="K3" s="10" t="n">
@@ -646,38 +646,38 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Lime</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Pass Tag</t>
         </is>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="n">
+      <c r="C5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="10" t="n">
         <v>9.99</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="n">
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="n">
         <v>45</v>
       </c>
       <c r="K5" s="10" t="n">
@@ -724,41 +724,41 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Tier</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Freischaltung</t>
         </is>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="10" t="n">
         <v>0.19</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>4.99</v>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5" t="n">
+      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -802,41 +802,41 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>Tier</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>Rider Plus</t>
         </is>
       </c>
-      <c r="C9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5" t="n">
+      <c r="C9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="10" t="n">
         <v>22.99</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5" t="n">
+      <c r="F9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="n">
         <v>300</v>
       </c>
       <c r="I9" s="10" t="n">
         <v>0.19</v>
       </c>
-      <c r="J9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5" t="n">
+      <c r="J9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -846,7 +846,7 @@
           <t>Tier</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>Summer Pass</t>
         </is>
@@ -880,225 +880,43 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>Tier</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Tagespass</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5" t="n">
+      <c r="C11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="10" t="n">
         <v>9.99</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5" t="n">
+      <c r="H11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="n">
         <v>45</v>
       </c>
       <c r="K11" s="10" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Lime</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>Tester</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
-      <c r="D15" s="1" t="n"/>
-      <c r="E15" s="1" t="n"/>
-      <c r="F15" s="1" t="n"/>
-      <c r="G15" s="1" t="n"/>
-      <c r="H15" s="1" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="1" t="n"/>
-      <c r="K15" s="1" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="9" t="n"/>
-      <c r="D16" s="9" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
-      <c r="H16" s="3" t="n"/>
-      <c r="I16" s="3" t="n"/>
-      <c r="J16" s="3" t="n"/>
-      <c r="K16" s="3" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="n"/>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="10" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="5" t="n"/>
-      <c r="K17" s="10" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="9" t="n"/>
-      <c r="D18" s="9" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
-      <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
-      <c r="K18" s="3" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="n"/>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="10" t="n"/>
-      <c r="H19" s="3" t="n"/>
-      <c r="I19" s="3" t="n"/>
-      <c r="J19" s="5" t="n"/>
-      <c r="K19" s="10" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n"/>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
-      <c r="D20" s="9" t="n"/>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="9" t="n"/>
-      <c r="G20" s="3" t="n"/>
-      <c r="H20" s="3" t="n"/>
-      <c r="I20" s="3" t="n"/>
-      <c r="J20" s="3" t="n"/>
-      <c r="K20" s="3" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="5" t="n"/>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="10" t="n"/>
-      <c r="E21" s="3" t="n"/>
-      <c r="F21" s="10" t="n"/>
-      <c r="G21" s="3" t="n"/>
-      <c r="H21" s="3" t="n"/>
-      <c r="I21" s="3" t="n"/>
-      <c r="J21" s="5" t="n"/>
-      <c r="K21" s="5" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="9" t="n"/>
-      <c r="D22" s="9" t="n"/>
-      <c r="E22" s="3" t="n"/>
-      <c r="F22" s="3" t="n"/>
-      <c r="G22" s="3" t="n"/>
-      <c r="H22" s="3" t="n"/>
-      <c r="I22" s="3" t="n"/>
-      <c r="J22" s="3" t="n"/>
-      <c r="K22" s="3" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="10" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="3" t="n"/>
-      <c r="H23" s="5" t="n"/>
-      <c r="I23" s="10" t="n"/>
-      <c r="J23" s="5" t="n"/>
-      <c r="K23" s="5" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n"/>
-      <c r="B24" s="8" t="n"/>
-      <c r="C24" s="3" t="n"/>
-      <c r="D24" s="9" t="n"/>
-      <c r="E24" s="3" t="n"/>
-      <c r="F24" s="9" t="n"/>
-      <c r="G24" s="3" t="n"/>
-      <c r="H24" s="3" t="n"/>
-      <c r="I24" s="3" t="n"/>
-      <c r="J24" s="3" t="n"/>
-      <c r="K24" s="3" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="n"/>
-      <c r="B25" s="5" t="n"/>
-      <c r="C25" s="5" t="n"/>
-      <c r="D25" s="5" t="n"/>
-      <c r="E25" s="5" t="n"/>
-      <c r="F25" s="5" t="n"/>
-      <c r="G25" s="10" t="n"/>
-      <c r="H25" s="5" t="n"/>
-      <c r="I25" s="5" t="n"/>
-      <c r="J25" s="5" t="n"/>
-      <c r="K25" s="10" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scooter.xlsx
+++ b/scooter.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>0.19</v>
@@ -916,6 +916,45 @@
       </c>
       <c r="K11" s="10" t="n">
         <v>0.19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>dfdddd</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ssasasasa</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>108876</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>22222</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/scooter.xlsx
+++ b/scooter.xlsx
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>0.19</v>

--- a/scooter.xlsx
+++ b/scooter.xlsx
@@ -921,22 +921,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dfdddd</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ssasasasa</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>108876</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>22222</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>

--- a/scooter.xlsx
+++ b/scooter.xlsx
@@ -921,22 +921,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>dagmars</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>tarif</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>

--- a/scooter.xlsx
+++ b/scooter.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -918,45 +918,6 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>dagmars</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>tarif</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
